--- a/1. Ventas Mensuales/2. reporte_de_ventas_NOV_16_30 - Color.xlsx
+++ b/1. Ventas Mensuales/2. reporte_de_ventas_NOV_16_30 - Color.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\1. Ventas Mensuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\1. Ventas Mensuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB83DCF-236F-40DB-8286-1097CAD9E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80685DBD-C8C2-47AE-8AAE-332A4876D4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +293,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -320,17 +330,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,6 +700,7 @@
     <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -710,7 +728,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -739,6 +757,9 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" s="5">
+        <v>50797</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -765,6 +786,9 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="5">
+        <v>21320</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -791,7 +815,7 @@
       <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>31791</v>
       </c>
     </row>
@@ -820,7 +844,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>15577</v>
       </c>
     </row>
@@ -849,7 +873,7 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>19234</v>
       </c>
     </row>
@@ -878,8 +902,8 @@
       <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7">
-        <v>19234</v>
+      <c r="I7" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -907,8 +931,8 @@
       <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" s="4">
+        <v>37703</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,6 +960,9 @@
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I9" s="5">
+        <v>86448</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -962,6 +989,9 @@
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I10" s="5">
+        <v>86447</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -988,7 +1018,7 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>29349</v>
       </c>
     </row>
@@ -1017,8 +1047,8 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="I12">
-        <v>62084</v>
+      <c r="I12" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1046,8 +1076,8 @@
       <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="I13">
-        <v>62084</v>
+      <c r="I13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1075,7 +1105,7 @@
       <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>62084</v>
       </c>
     </row>
@@ -1104,7 +1134,7 @@
       <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>9111</v>
       </c>
     </row>
@@ -1133,7 +1163,7 @@
       <c r="H16" t="s">
         <v>16</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>19537</v>
       </c>
     </row>
@@ -1162,7 +1192,7 @@
       <c r="H17" t="s">
         <v>16</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>29289</v>
       </c>
     </row>
@@ -1191,8 +1221,8 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18">
-        <v>29289</v>
+      <c r="I18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1220,7 +1250,7 @@
       <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>53091</v>
       </c>
     </row>
@@ -1249,7 +1279,7 @@
       <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>16500</v>
       </c>
     </row>
